--- a/data/trans_orig/P6703-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6703-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>10566</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4921</v>
+        <v>5079</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19254</v>
+        <v>20377</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03756619484169502</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01749482096966062</v>
+        <v>0.01805909098346513</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06845277392503185</v>
+        <v>0.07244598312309161</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>2928</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7635</v>
+        <v>7004</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0131104017154322</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004215123769148504</v>
+        <v>0.00417640686209809</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0341850527196793</v>
+        <v>0.03136304352536469</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -785,19 +785,19 @@
         <v>13494</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7434</v>
+        <v>7797</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23137</v>
+        <v>23669</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0267422648983034</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01473324285301938</v>
+        <v>0.01545235260619538</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04585099459222164</v>
+        <v>0.04690538662341015</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>6197</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2828</v>
+        <v>2165</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12631</v>
+        <v>12925</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02203170771035815</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01005454091813559</v>
+        <v>0.007697226772194019</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04490771140506671</v>
+        <v>0.0459520649648521</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -835,19 +835,19 @@
         <v>3497</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9808</v>
+        <v>8703</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01565738049364804</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004721625905719451</v>
+        <v>0.004689005778712054</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04391758956077007</v>
+        <v>0.03897015406057536</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -856,19 +856,19 @@
         <v>9694</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4362</v>
+        <v>4319</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17418</v>
+        <v>17271</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01921048368079145</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008644105747812748</v>
+        <v>0.008558954420609301</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03451731697798711</v>
+        <v>0.03422667598821218</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>52024</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39639</v>
+        <v>40333</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>66940</v>
+        <v>66856</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1849597548635373</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1409284121301659</v>
+        <v>0.1433944180400568</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2379894054132269</v>
+        <v>0.2376919109928888</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -906,19 +906,19 @@
         <v>34279</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24184</v>
+        <v>24082</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45450</v>
+        <v>47437</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1534868512731868</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1082883905437129</v>
+        <v>0.1078309447722223</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2035088125941744</v>
+        <v>0.2124019225441679</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>83</v>
@@ -927,19 +927,19 @@
         <v>86303</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>69213</v>
+        <v>70183</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>103718</v>
+        <v>105028</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1710301103895971</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1371626959218331</v>
+        <v>0.1390848977608732</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2055433648053377</v>
+        <v>0.2081395597353743</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>66235</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52688</v>
+        <v>53223</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81614</v>
+        <v>81795</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2354863081252039</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1873201300268728</v>
+        <v>0.1892241688271527</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2901601901714889</v>
+        <v>0.2908040773210648</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -977,19 +977,19 @@
         <v>61557</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48593</v>
+        <v>49544</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76317</v>
+        <v>74748</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2756257145679575</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.217579562863065</v>
+        <v>0.2218383403776498</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3417166835276195</v>
+        <v>0.3346932910360317</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>118</v>
@@ -998,19 +998,19 @@
         <v>127792</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>108244</v>
+        <v>107042</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>149213</v>
+        <v>148911</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2532516744358601</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2145119866557637</v>
+        <v>0.212130953314937</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2957027844946513</v>
+        <v>0.2951031486710257</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>146249</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>129794</v>
+        <v>127454</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>163744</v>
+        <v>161247</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5199560344592056</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4614557963585904</v>
+        <v>0.4531345760859846</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.582158092214646</v>
+        <v>0.57328007903853</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>111</v>
@@ -1048,19 +1048,19 @@
         <v>121074</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>106284</v>
+        <v>107792</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>138545</v>
+        <v>139067</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5421196519497755</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4758952066926381</v>
+        <v>0.4826488236001841</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6203482104476479</v>
+        <v>0.6226858277795839</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>245</v>
@@ -1069,19 +1069,19 @@
         <v>267322</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>244171</v>
+        <v>243366</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>290714</v>
+        <v>288120</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.529765466595448</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4838851849866098</v>
+        <v>0.4822899230430528</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5761216279434024</v>
+        <v>0.5709808080083605</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>7950</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3086</v>
+        <v>3875</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15716</v>
+        <v>14945</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0208609026803291</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00809800324726519</v>
+        <v>0.01016724616938025</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04123839050861108</v>
+        <v>0.03921334659426199</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1194,19 +1194,19 @@
         <v>11232</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5285</v>
+        <v>5075</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19794</v>
+        <v>21593</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04398676956516843</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02069816342921945</v>
+        <v>0.01987582773573166</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07751544831572867</v>
+        <v>0.08455851206078362</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1215,19 +1215,19 @@
         <v>19183</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11919</v>
+        <v>11159</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31343</v>
+        <v>30703</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03013920480971415</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01872735195260041</v>
+        <v>0.01753211346049246</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0492452026946785</v>
+        <v>0.04824024551031401</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>10493</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4990</v>
+        <v>5093</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17550</v>
+        <v>18436</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02753245344183345</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01309303998440482</v>
+        <v>0.01336409655388089</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04605100389780758</v>
+        <v>0.04837471118628189</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -1265,19 +1265,19 @@
         <v>12632</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7234</v>
+        <v>6681</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23101</v>
+        <v>21509</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04946751603805548</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02832846608213502</v>
+        <v>0.02616417406116042</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09046580002812889</v>
+        <v>0.08423326390903346</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>22</v>
@@ -1286,19 +1286,19 @@
         <v>23125</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>15445</v>
+        <v>14087</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>34198</v>
+        <v>33812</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03633299436893458</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02426633597464239</v>
+        <v>0.02213249627992258</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05373167657897832</v>
+        <v>0.05312461392441933</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>58187</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>45858</v>
+        <v>44501</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>72816</v>
+        <v>74012</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1526779425636968</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1203269588013908</v>
+        <v>0.1167680131957751</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.191063346081699</v>
+        <v>0.1942015848013323</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>43</v>
@@ -1336,19 +1336,19 @@
         <v>48719</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36520</v>
+        <v>35890</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>64455</v>
+        <v>62339</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1907878397712463</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1430152767857189</v>
+        <v>0.1405470511901413</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2524137343171183</v>
+        <v>0.2441260844988045</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>102</v>
@@ -1357,19 +1357,19 @@
         <v>106906</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>87457</v>
+        <v>88170</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>127672</v>
+        <v>128215</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1679679700542234</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1374108018995174</v>
+        <v>0.1385303412695374</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2005947870645017</v>
+        <v>0.20144822465043</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>123365</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>106196</v>
+        <v>106041</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>142446</v>
+        <v>144442</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3237002455733344</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2786496822303655</v>
+        <v>0.2782425179510548</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.373766787927087</v>
+        <v>0.3790029269768527</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -1407,19 +1407,19 @@
         <v>77535</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>61017</v>
+        <v>63132</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92855</v>
+        <v>95523</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3036356871971516</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2389483772403607</v>
+        <v>0.2472295040770502</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3636282996795853</v>
+        <v>0.3740779003491169</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>185</v>
@@ -1428,19 +1428,19 @@
         <v>200900</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>177122</v>
+        <v>176035</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>225894</v>
+        <v>225118</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3156501674666861</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.278290682654331</v>
+        <v>0.2765826603673494</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3549200493460848</v>
+        <v>0.3537008304390096</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>181114</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>159742</v>
+        <v>160812</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>201281</v>
+        <v>201422</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4752284557408062</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.419148744180224</v>
+        <v>0.421956459319312</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5281428692793088</v>
+        <v>0.5285152228345438</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>102</v>
@@ -1478,19 +1478,19 @@
         <v>105238</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>89546</v>
+        <v>88626</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>123599</v>
+        <v>121559</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4121221874283783</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3506702033298142</v>
+        <v>0.347067224815117</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4840276799127465</v>
+        <v>0.4760365824118075</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>275</v>
@@ -1499,19 +1499,19 @@
         <v>286352</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>260904</v>
+        <v>260345</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>312484</v>
+        <v>313557</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4499096633004417</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4099261190634904</v>
+        <v>0.4090488779933704</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4909678653983311</v>
+        <v>0.4926537024910213</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>5806</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1923</v>
+        <v>2773</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11581</v>
+        <v>11917</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01273850809865084</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004218282210393559</v>
+        <v>0.006084113273190203</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02540700997895018</v>
+        <v>0.02614366277618386</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1624,19 +1624,19 @@
         <v>6952</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3059</v>
+        <v>3003</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14296</v>
+        <v>14396</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02494957811096244</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01097618449520248</v>
+        <v>0.01077556422598557</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05130064051532166</v>
+        <v>0.05166195513589221</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1645,19 +1645,19 @@
         <v>12759</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6858</v>
+        <v>6729</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23152</v>
+        <v>21862</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01737138330933808</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00933694544149977</v>
+        <v>0.009161998394400404</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03152158653261679</v>
+        <v>0.02976467800419132</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>9910</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4884</v>
+        <v>5345</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17743</v>
+        <v>18492</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02174205551505158</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01071487090519252</v>
+        <v>0.01172510967473233</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03892572071194483</v>
+        <v>0.04056926060495507</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1695,19 +1695,19 @@
         <v>7521</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3160</v>
+        <v>3330</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15450</v>
+        <v>14495</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02699102303975914</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01134130767086157</v>
+        <v>0.01195162512140315</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05544350710086449</v>
+        <v>0.05201799639846867</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -1716,19 +1716,19 @@
         <v>17432</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10281</v>
+        <v>9935</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26986</v>
+        <v>27755</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02373351175127019</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01399714097784798</v>
+        <v>0.01352681904961675</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03674123061041214</v>
+        <v>0.03778897684693702</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>105807</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>88746</v>
+        <v>87379</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>125888</v>
+        <v>123980</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2321239719212838</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1946944961587859</v>
+        <v>0.1916961893061211</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2761792727790746</v>
+        <v>0.2719929374917041</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>50</v>
@@ -1766,19 +1766,19 @@
         <v>51996</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41087</v>
+        <v>40271</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>66294</v>
+        <v>65371</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.186591718889431</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1474438689353244</v>
+        <v>0.1445169477232735</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2379021589694912</v>
+        <v>0.2345895633649031</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>151</v>
@@ -1787,19 +1787,19 @@
         <v>157803</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>134691</v>
+        <v>135667</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>180646</v>
+        <v>180956</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2148490528400462</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1833823831576351</v>
+        <v>0.1847106921746121</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2459498761332468</v>
+        <v>0.2463729004449559</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>134882</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>116719</v>
+        <v>115128</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>156559</v>
+        <v>153062</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2959102817433549</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2560637661300388</v>
+        <v>0.2525738253894065</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3434665537591852</v>
+        <v>0.3357957755267006</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -1837,19 +1837,19 @@
         <v>93028</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>76967</v>
+        <v>78166</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>108670</v>
+        <v>108916</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3338383264732314</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2762010844540248</v>
+        <v>0.2805047917622235</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3899705859518603</v>
+        <v>0.3908540560494135</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>219</v>
@@ -1858,19 +1858,19 @@
         <v>227910</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>204578</v>
+        <v>203256</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>255773</v>
+        <v>254105</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.310300167154029</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2785332494618031</v>
+        <v>0.276733339998672</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3482364229143174</v>
+        <v>0.3459655261145833</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>199414</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>178527</v>
+        <v>176596</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>220611</v>
+        <v>223349</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4374851827216588</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3916610686136435</v>
+        <v>0.3874244843867753</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4839873724266069</v>
+        <v>0.4899930805143136</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>111</v>
@@ -1908,19 +1908,19 @@
         <v>119164</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>103063</v>
+        <v>101634</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>137828</v>
+        <v>135312</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.427629353486616</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3698505854083111</v>
+        <v>0.3647231756254369</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4946066005858711</v>
+        <v>0.4855758142442984</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>294</v>
@@ -1929,19 +1929,19 @@
         <v>318579</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>289916</v>
+        <v>291267</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>346949</v>
+        <v>347431</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4337458849453166</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3947220181783263</v>
+        <v>0.3965613462503428</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4723718745625923</v>
+        <v>0.4730279842645623</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>3746</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>944</v>
+        <v>911</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8965</v>
+        <v>9561</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01263917957334828</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003184277384969937</v>
+        <v>0.003072201010272163</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0302506922968871</v>
+        <v>0.032261960098121</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -2054,19 +2054,19 @@
         <v>8791</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3985</v>
+        <v>3084</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16943</v>
+        <v>16923</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0471272129972429</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02136071416250079</v>
+        <v>0.01653046748753986</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09083233119535149</v>
+        <v>0.09072274438819576</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -2075,19 +2075,19 @@
         <v>12537</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6649</v>
+        <v>6841</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22272</v>
+        <v>21620</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02596116181526892</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01376778602320425</v>
+        <v>0.01416612025489142</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04612049239699961</v>
+        <v>0.04477068818120589</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>8084</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2907</v>
+        <v>2893</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17562</v>
+        <v>17320</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02727592138663022</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009808781573551726</v>
+        <v>0.009762477672884243</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05925578348932613</v>
+        <v>0.05844037910038118</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -2125,19 +2125,19 @@
         <v>10111</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5039</v>
+        <v>5245</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18312</v>
+        <v>19005</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05420480672653914</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02701543308009625</v>
+        <v>0.02812015636625402</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09816816819140688</v>
+        <v>0.1018837953473648</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -2146,19 +2146,19 @@
         <v>18195</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10401</v>
+        <v>10800</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>29467</v>
+        <v>29662</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03767796802940663</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02153868947315152</v>
+        <v>0.02236481899246475</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06101975501229949</v>
+        <v>0.06142477816239256</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>52568</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>40169</v>
+        <v>39005</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>68715</v>
+        <v>67688</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1773743537059499</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1355366892201198</v>
+        <v>0.1316097263357449</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2318562165092559</v>
+        <v>0.2283922169208493</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>35</v>
@@ -2196,19 +2196,19 @@
         <v>37636</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26872</v>
+        <v>26738</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>49892</v>
+        <v>49964</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2017601774221661</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1440581804210722</v>
+        <v>0.1433377500915708</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2674679910823032</v>
+        <v>0.267849613446295</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>82</v>
@@ -2217,19 +2217,19 @@
         <v>90204</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>73841</v>
+        <v>72805</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>107683</v>
+        <v>110034</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1867940705830786</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1529099056483585</v>
+        <v>0.1507642027279731</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.222991000898856</v>
+        <v>0.2278579356223266</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>102508</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>85319</v>
+        <v>86009</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>119850</v>
+        <v>119766</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3458809039904225</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2878820605193483</v>
+        <v>0.2902076343510089</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4043940137538654</v>
+        <v>0.404110976521929</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -2267,19 +2267,19 @@
         <v>45145</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>33256</v>
+        <v>33636</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59522</v>
+        <v>58758</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.242015107542713</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1782845978540535</v>
+        <v>0.1803188003472301</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.319090729151421</v>
+        <v>0.3149940051822961</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>135</v>
@@ -2288,19 +2288,19 @@
         <v>147653</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>128874</v>
+        <v>126559</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>170295</v>
+        <v>170448</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3057597907099926</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2668717776412947</v>
+        <v>0.2620784089283615</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3526474351909968</v>
+        <v>0.3529645519894309</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>129463</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>112201</v>
+        <v>111721</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>148402</v>
+        <v>148772</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.436829641343649</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.378585762998102</v>
+        <v>0.3769663156655096</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5007330380643361</v>
+        <v>0.50198322513431</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>77</v>
@@ -2338,19 +2338,19 @@
         <v>84854</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>70104</v>
+        <v>69898</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>100350</v>
+        <v>99177</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4548926953113389</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3758192087111754</v>
+        <v>0.3747153169325302</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5379684002189892</v>
+        <v>0.5316789568691954</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>193</v>
@@ -2359,19 +2359,19 @@
         <v>214317</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>191521</v>
+        <v>191281</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>236838</v>
+        <v>236657</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4438070088622532</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3966019185813339</v>
+        <v>0.3961051736838373</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4904452442465656</v>
+        <v>0.490069831449973</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>28069</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18871</v>
+        <v>18865</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>40977</v>
+        <v>39775</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01984271346173551</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01334049204600386</v>
+        <v>0.0133359881333155</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02896756010202768</v>
+        <v>0.02811794537655762</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>26</v>
@@ -2484,19 +2484,19 @@
         <v>29904</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19588</v>
+        <v>19975</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>42947</v>
+        <v>42104</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03168139876606637</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02075240683880332</v>
+        <v>0.0211629757132036</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04550058929744949</v>
+        <v>0.04460722844457844</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>53</v>
@@ -2505,19 +2505,19 @@
         <v>57973</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>42807</v>
+        <v>42322</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>73497</v>
+        <v>75592</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02458071997325404</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01815047071980153</v>
+        <v>0.01794461990395479</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03116327219487605</v>
+        <v>0.03205143776755565</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>34684</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>25208</v>
+        <v>24430</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>49631</v>
+        <v>49003</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02451909365639409</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01781993384358832</v>
+        <v>0.01727028378801604</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03508582420935349</v>
+        <v>0.03464157524616648</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>32</v>
@@ -2555,19 +2555,19 @@
         <v>33761</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>24236</v>
+        <v>23249</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>47238</v>
+        <v>47094</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03576818152710041</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02567705480132777</v>
+        <v>0.02463161102242203</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05004652432724383</v>
+        <v>0.04989406830546014</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>64</v>
@@ -2576,19 +2576,19 @@
         <v>68445</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>53381</v>
+        <v>51734</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>88488</v>
+        <v>87134</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02902113507484052</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02263392771341705</v>
+        <v>0.02193538211913312</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03751955949118724</v>
+        <v>0.03694530358531799</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>268586</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>238484</v>
+        <v>240614</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>296838</v>
+        <v>303414</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.189871073297237</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1685910831775929</v>
+        <v>0.1700969749388905</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2098430894123076</v>
+        <v>0.2144922466721645</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>160</v>
@@ -2626,19 +2626,19 @@
         <v>172629</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>148990</v>
+        <v>148544</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>197282</v>
+        <v>194686</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1828916164523614</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1578474457310399</v>
+        <v>0.157374306982599</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2090099858283453</v>
+        <v>0.2062601221705393</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>418</v>
@@ -2647,19 +2647,19 @@
         <v>441215</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>402289</v>
+        <v>404353</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>481603</v>
+        <v>480142</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1870777975974609</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1705731520247159</v>
+        <v>0.1714480077000741</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2042027590947244</v>
+        <v>0.2035832355142398</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>426991</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>390846</v>
+        <v>392728</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>463420</v>
+        <v>466543</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.301852200264232</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2763004286891179</v>
+        <v>0.2776308937843496</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3276047690855122</v>
+        <v>0.329812945215922</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>252</v>
@@ -2697,19 +2697,19 @@
         <v>277264</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>246596</v>
+        <v>251657</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>306929</v>
+        <v>307677</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2937471422845829</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2612557415367099</v>
+        <v>0.266617531684694</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3251753918326862</v>
+        <v>0.3259684937272061</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>657</v>
@@ -2718,19 +2718,19 @@
         <v>704255</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>657169</v>
+        <v>660328</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>749365</v>
+        <v>749186</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2986084433354315</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2786434603481568</v>
+        <v>0.2799828964493791</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3177351757443355</v>
+        <v>0.3176594340198515</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>656240</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>616526</v>
+        <v>615773</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>694895</v>
+        <v>690722</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4639149193204015</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.435839727256417</v>
+        <v>0.4353073064589549</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4912413644226684</v>
+        <v>0.4882913017088981</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>401</v>
@@ -2768,19 +2768,19 @@
         <v>430329</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>396717</v>
+        <v>402265</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>460465</v>
+        <v>463101</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4559116609698889</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4203014782066961</v>
+        <v>0.4261791607653466</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4878389280414897</v>
+        <v>0.4906315716766113</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1007</v>
@@ -2789,19 +2789,19 @@
         <v>1086569</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1036395</v>
+        <v>1039731</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1135334</v>
+        <v>1137851</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4607119040190131</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4394378929467569</v>
+        <v>0.4408523519531348</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.481388580839155</v>
+        <v>0.4824555027714868</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>13725</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8064</v>
+        <v>7588</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22993</v>
+        <v>22693</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04675228136616427</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02746922836308767</v>
+        <v>0.02584762781072271</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07831949095070752</v>
+        <v>0.07729822763004988</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -3154,19 +3154,19 @@
         <v>11557</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6190</v>
+        <v>6116</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19389</v>
+        <v>19312</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04168566394914546</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02232752538601392</v>
+        <v>0.02206043255242826</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06993638523309945</v>
+        <v>0.06966090117829332</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -3175,19 +3175,19 @@
         <v>25282</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16454</v>
+        <v>16577</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36939</v>
+        <v>35506</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0442915236181464</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02882488592516969</v>
+        <v>0.02904126221297394</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06471397275747075</v>
+        <v>0.0622038058722626</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>19212</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12534</v>
+        <v>11619</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32133</v>
+        <v>29022</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06544143919497281</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04269461069240783</v>
+        <v>0.03957559874786722</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1094541186162744</v>
+        <v>0.09885773074125903</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -3225,19 +3225,19 @@
         <v>16681</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10132</v>
+        <v>10165</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25949</v>
+        <v>26333</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06017010092999903</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03654764130323223</v>
+        <v>0.03666569283899636</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09359939120568557</v>
+        <v>0.0949840429418754</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>34</v>
@@ -3246,19 +3246,19 @@
         <v>35893</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25592</v>
+        <v>25786</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>48178</v>
+        <v>49301</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06288125250426552</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0448349195263955</v>
+        <v>0.04517440459048668</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08440257551094454</v>
+        <v>0.08636992701873517</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>75761</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>59402</v>
+        <v>59637</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>91554</v>
+        <v>90791</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2580623828778769</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2023382390388308</v>
+        <v>0.2031380864949111</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3118547992430931</v>
+        <v>0.3092567877654901</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>42</v>
@@ -3296,19 +3296,19 @@
         <v>44256</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>33186</v>
+        <v>32785</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>57225</v>
+        <v>58610</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1596348651085792</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1197057137390034</v>
+        <v>0.1182599139405482</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2064155117441125</v>
+        <v>0.2114110967268911</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>112</v>
@@ -3317,19 +3317,19 @@
         <v>120017</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>100246</v>
+        <v>99030</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>140827</v>
+        <v>140011</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2102580477497906</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1756216443229763</v>
+        <v>0.1734908695131481</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2467139607398089</v>
+        <v>0.245285748442666</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>70649</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57062</v>
+        <v>56752</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87107</v>
+        <v>87068</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2406498418566773</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.194368885338583</v>
+        <v>0.1933111959348723</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2967069202146715</v>
+        <v>0.2965749641263062</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>78</v>
@@ -3367,19 +3367,19 @@
         <v>77317</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63708</v>
+        <v>62984</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93296</v>
+        <v>91964</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.278891205718468</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2297995856452445</v>
+        <v>0.227190893989764</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3365283333699529</v>
+        <v>0.3317232627359826</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>144</v>
@@ -3388,19 +3388,19 @@
         <v>147967</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>127897</v>
+        <v>127973</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>169104</v>
+        <v>169341</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.25922293010715</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2240635656404107</v>
+        <v>0.2241954621138285</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2962526604673393</v>
+        <v>0.2966682297360331</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>114229</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>97483</v>
+        <v>95995</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>132695</v>
+        <v>130666</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3890940547043088</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3320508435802925</v>
+        <v>0.3269842847504357</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4519924516079612</v>
+        <v>0.4450825012706569</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>121</v>
@@ -3438,19 +3438,19 @@
         <v>127420</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>112446</v>
+        <v>109831</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>145779</v>
+        <v>145375</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4596181642938083</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4056027070412641</v>
+        <v>0.3961720825092873</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5258407034005573</v>
+        <v>0.5243820217594473</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>224</v>
@@ -3459,19 +3459,19 @@
         <v>241650</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>218271</v>
+        <v>220948</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>263855</v>
+        <v>268679</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4233462460206475</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3823883544134717</v>
+        <v>0.3870786280456582</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4622466934030723</v>
+        <v>0.4706983261736968</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>8761</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3944</v>
+        <v>3935</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16031</v>
+        <v>16503</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02243732148773799</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0101001875800062</v>
+        <v>0.01007819781062407</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04105453699887881</v>
+        <v>0.0422649341244421</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -3584,19 +3584,19 @@
         <v>10056</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5280</v>
+        <v>4899</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19106</v>
+        <v>17191</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03723721629317824</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01955327874467603</v>
+        <v>0.01814259213482023</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07074841364505696</v>
+        <v>0.06365955569425344</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -3605,19 +3605,19 @@
         <v>18817</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11344</v>
+        <v>10928</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29078</v>
+        <v>28525</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02848817382798616</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01717370151029676</v>
+        <v>0.01654489844381672</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04402195091168417</v>
+        <v>0.04318506820193372</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>23481</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15142</v>
+        <v>15505</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>35203</v>
+        <v>34969</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06013508548241581</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03877851181643832</v>
+        <v>0.03970877424436273</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09015365045430444</v>
+        <v>0.08955476408785258</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -3655,19 +3655,19 @@
         <v>17911</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10621</v>
+        <v>10255</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27443</v>
+        <v>26942</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06632416340191649</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03932804877079302</v>
+        <v>0.03797220860205168</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1016193659577628</v>
+        <v>0.0997640907528025</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>39</v>
@@ -3676,19 +3676,19 @@
         <v>41392</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29387</v>
+        <v>29938</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>55307</v>
+        <v>54853</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06266545459013563</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0444907950067077</v>
+        <v>0.04532463065554559</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08373218192919143</v>
+        <v>0.08304459695600266</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>89803</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>74597</v>
+        <v>73161</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>107633</v>
+        <v>106313</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2299857282358786</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1910417805490466</v>
+        <v>0.1873636329657355</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.275647390567375</v>
+        <v>0.2722656866797852</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>37</v>
@@ -3726,19 +3726,19 @@
         <v>37442</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26927</v>
+        <v>26544</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>50129</v>
+        <v>49940</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1386473120624112</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09971169832009834</v>
+        <v>0.09829018739163202</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1856280290982967</v>
+        <v>0.1849258965531023</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>124</v>
@@ -3747,19 +3747,19 @@
         <v>127246</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>106724</v>
+        <v>106425</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>149599</v>
+        <v>148949</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1926425392116816</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1615742705309708</v>
+        <v>0.161121562640431</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.226484904240946</v>
+        <v>0.2255003452846862</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>133515</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>113743</v>
+        <v>113954</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>151222</v>
+        <v>152817</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3419296293246039</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2912950146675923</v>
+        <v>0.2918349361191167</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3872790771315834</v>
+        <v>0.3913627436493538</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -3797,19 +3797,19 @@
         <v>81285</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66359</v>
+        <v>66193</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96293</v>
+        <v>96625</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3009982885774241</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2457266480738254</v>
+        <v>0.2451105737219112</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3565705902576108</v>
+        <v>0.3577995023505094</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>207</v>
@@ -3818,19 +3818,19 @@
         <v>214800</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>191788</v>
+        <v>188713</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>239471</v>
+        <v>237103</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3251950847751029</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2903559351988749</v>
+        <v>0.2857000542046436</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3625460097892645</v>
+        <v>0.358960092433197</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>134914</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>117355</v>
+        <v>116434</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>153195</v>
+        <v>154762</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3455122354693637</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3005461220140442</v>
+        <v>0.2981856181533705</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3923309845673453</v>
+        <v>0.3963449662948949</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>119</v>
@@ -3868,19 +3868,19 @@
         <v>123358</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>106859</v>
+        <v>107945</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>141212</v>
+        <v>140414</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4567930196650699</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3956975929194463</v>
+        <v>0.3997181534479682</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5229041252808488</v>
+        <v>0.5199514338566735</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>246</v>
@@ -3889,19 +3889,19 @@
         <v>258272</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>233640</v>
+        <v>235220</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>284652</v>
+        <v>286142</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3910087475950937</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3537179137708036</v>
+        <v>0.3561095157527434</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4309462235694198</v>
+        <v>0.4332028708609238</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>9423</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4805</v>
+        <v>4164</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18143</v>
+        <v>16315</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02065593901061375</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01053255550720924</v>
+        <v>0.009127819539249227</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03976987670449271</v>
+        <v>0.03576275386470663</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -4014,19 +4014,19 @@
         <v>6367</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2739</v>
+        <v>2707</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12915</v>
+        <v>12867</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02190640104253258</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009425455345569605</v>
+        <v>0.00931360634256947</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04443795269270539</v>
+        <v>0.04427038709552767</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -4035,19 +4035,19 @@
         <v>15790</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9393</v>
+        <v>9035</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24980</v>
+        <v>24487</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02114257095589875</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01257731136827129</v>
+        <v>0.01209794180795076</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03344765344435378</v>
+        <v>0.03278796920403383</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>22813</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14810</v>
+        <v>15267</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33624</v>
+        <v>34182</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05000774674729846</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03246445132414417</v>
+        <v>0.03346551912789623</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07370733324344168</v>
+        <v>0.07493063553586106</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -4085,19 +4085,19 @@
         <v>16663</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9402</v>
+        <v>9982</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26002</v>
+        <v>26112</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05733305452672187</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03234947737937319</v>
+        <v>0.03434666107724382</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08946774064441607</v>
+        <v>0.08984557854068215</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>39</v>
@@ -4106,19 +4106,19 @@
         <v>39476</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>28861</v>
+        <v>28421</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>53595</v>
+        <v>53242</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05285847606455894</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03864520853684002</v>
+        <v>0.03805568015957718</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07176328365298934</v>
+        <v>0.07129180111453914</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>68813</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>53804</v>
+        <v>54032</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>85520</v>
+        <v>85921</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1508424684666787</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1179436428670029</v>
+        <v>0.118442526979122</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1874676143763808</v>
+        <v>0.1883461126201716</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>60</v>
@@ -4156,19 +4156,19 @@
         <v>60017</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>46763</v>
+        <v>48365</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>72238</v>
+        <v>76178</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2065019698026722</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1609002428688362</v>
+        <v>0.1664100892994225</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2485530078304905</v>
+        <v>0.2621104379370931</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>125</v>
@@ -4177,19 +4177,19 @@
         <v>128829</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>108754</v>
+        <v>109621</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>149871</v>
+        <v>149337</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1725030153024466</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1456221784334877</v>
+        <v>0.1467825896686057</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2006782948063529</v>
+        <v>0.1999631221632765</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>160950</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>142082</v>
+        <v>140286</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>181690</v>
+        <v>182806</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3528161237173503</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3114549124127397</v>
+        <v>0.3075181795593899</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3982797021927095</v>
+        <v>0.4007254694025521</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -4227,19 +4227,19 @@
         <v>93890</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>80506</v>
+        <v>78115</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>111464</v>
+        <v>108758</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3230516130196112</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2769995949942543</v>
+        <v>0.2687733495801904</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3835198216922118</v>
+        <v>0.3742080321818611</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>246</v>
@@ -4248,19 +4248,19 @@
         <v>254841</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>231099</v>
+        <v>228275</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>285107</v>
+        <v>282526</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3412329157737468</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3094430458286223</v>
+        <v>0.3056611665028574</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.381759949211614</v>
+        <v>0.3783033965607664</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>194189</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>172097</v>
+        <v>173883</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>214699</v>
+        <v>217082</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4256777220580588</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3772491966033557</v>
+        <v>0.3811656659070248</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4706362504254589</v>
+        <v>0.4758616444594441</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>113</v>
@@ -4298,19 +4298,19 @@
         <v>113698</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>97842</v>
+        <v>97343</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>130318</v>
+        <v>131955</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3912069616084622</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3366498664562558</v>
+        <v>0.3349305349668688</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4483892593575505</v>
+        <v>0.4540213864750233</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>292</v>
@@ -4319,19 +4319,19 @@
         <v>307888</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>283232</v>
+        <v>280604</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>333641</v>
+        <v>335368</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.412263021903349</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3792481756116182</v>
+        <v>0.3757296703125417</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4467464752134659</v>
+        <v>0.4490591787426966</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>8990</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3734</v>
+        <v>4369</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16796</v>
+        <v>16914</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03267257354113091</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01357055281289089</v>
+        <v>0.01587711635735163</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06104221137870684</v>
+        <v>0.06147147804515154</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -4444,19 +4444,19 @@
         <v>8776</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3683</v>
+        <v>3944</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15563</v>
+        <v>16380</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04522411240581228</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0189805213133176</v>
+        <v>0.02032417657554635</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08019779973347074</v>
+        <v>0.08440326467687832</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -4465,19 +4465,19 @@
         <v>17766</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11102</v>
+        <v>10985</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28019</v>
+        <v>27359</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03786380423612422</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02366067359282523</v>
+        <v>0.02341112413856093</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05971475327244902</v>
+        <v>0.05830876924557011</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>8895</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3946</v>
+        <v>4097</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17710</v>
+        <v>16073</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03232864719381057</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01434239705392564</v>
+        <v>0.01489159301406118</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06436583923939013</v>
+        <v>0.05841517901098898</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -4515,19 +4515,19 @@
         <v>8247</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3926</v>
+        <v>3795</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16016</v>
+        <v>16697</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04249861210083594</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02023297574702003</v>
+        <v>0.01955485385384242</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08253069600338955</v>
+        <v>0.08603832328783738</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>16</v>
@@ -4536,19 +4536,19 @@
         <v>17143</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10076</v>
+        <v>9709</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27472</v>
+        <v>27464</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03653487517601545</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02147425738047421</v>
+        <v>0.02069260451367089</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05854980333824274</v>
+        <v>0.05853271238684785</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>34479</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24406</v>
+        <v>25122</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>47986</v>
+        <v>46972</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1253119828554177</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08870202683563162</v>
+        <v>0.09130228101445782</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1744009923009969</v>
+        <v>0.1707132663526484</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -4586,19 +4586,19 @@
         <v>31779</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22769</v>
+        <v>21454</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>44414</v>
+        <v>44703</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1637582134512044</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.117326498562691</v>
+        <v>0.1105526653135476</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2288620191113857</v>
+        <v>0.2303544312935256</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>60</v>
@@ -4607,19 +4607,19 @@
         <v>66259</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>51701</v>
+        <v>52769</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>83413</v>
+        <v>84056</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1412130810814881</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1101867212314448</v>
+        <v>0.1124633434644837</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1777734760200289</v>
+        <v>0.179142319758893</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>98011</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>81178</v>
+        <v>82461</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>114460</v>
+        <v>114718</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3562120557299528</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2950313236855578</v>
+        <v>0.2996972795486824</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4159929102295551</v>
+        <v>0.4169317028740901</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -4657,19 +4657,19 @@
         <v>58085</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>45533</v>
+        <v>45672</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70563</v>
+        <v>71995</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.299308280025257</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.234629412808636</v>
+        <v>0.2353438168573662</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3636104033915923</v>
+        <v>0.3709858601863033</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>146</v>
@@ -4678,19 +4678,19 @@
         <v>156096</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>133410</v>
+        <v>138033</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>177282</v>
+        <v>177502</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3326770429889688</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2843274651130808</v>
+        <v>0.2941798463330706</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3778290038389547</v>
+        <v>0.3782984027156193</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>124773</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>107835</v>
+        <v>107538</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>140462</v>
+        <v>140015</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4534747406796881</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3919161780839521</v>
+        <v>0.3908352130913761</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5104932228888472</v>
+        <v>0.5088697565057893</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>82</v>
@@ -4728,19 +4728,19 @@
         <v>87175</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>72875</v>
+        <v>72283</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>100771</v>
+        <v>101620</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4492107820168904</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3755232941459287</v>
+        <v>0.372471677899617</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.519271257695226</v>
+        <v>0.5236429814816441</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>195</v>
@@ -4749,19 +4749,19 @@
         <v>211948</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>188884</v>
+        <v>190300</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>235872</v>
+        <v>231807</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4517111965174034</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4025566502023261</v>
+        <v>0.4055727441524835</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5026979239561694</v>
+        <v>0.4940343767740785</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>40899</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29475</v>
+        <v>30076</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>55145</v>
+        <v>56149</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02889625909795858</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02082484781841076</v>
+        <v>0.02124932331027052</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03896121175145786</v>
+        <v>0.03967013888484786</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>37</v>
@@ -4874,19 +4874,19 @@
         <v>36756</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>25890</v>
+        <v>26676</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>50334</v>
+        <v>48944</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03561658074295551</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02508749973651922</v>
+        <v>0.02584885079074824</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04877379438869551</v>
+        <v>0.04742747594993347</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>75</v>
@@ -4895,19 +4895,19 @@
         <v>77655</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>61794</v>
+        <v>62845</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>98522</v>
+        <v>97374</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03173001266933079</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02524915571881336</v>
+        <v>0.02567841965086982</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04025640268226903</v>
+        <v>0.03978734506430787</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>74402</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>57886</v>
+        <v>58375</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>93198</v>
+        <v>92200</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05256609890483139</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04089732941073966</v>
+        <v>0.04124272076317696</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0658461148319332</v>
+        <v>0.06514072625957552</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>59</v>
@@ -4945,19 +4945,19 @@
         <v>59502</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>46124</v>
+        <v>45809</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>76265</v>
+        <v>77126</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0576584211645247</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04469495511897309</v>
+        <v>0.04438959652524309</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07390196563538641</v>
+        <v>0.07473568118033042</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>128</v>
@@ -4966,19 +4966,19 @@
         <v>133904</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>112677</v>
+        <v>113052</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>157681</v>
+        <v>157347</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05471337505503279</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04603999034474994</v>
+        <v>0.04619325103696601</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06442853393263252</v>
+        <v>0.06429230002475145</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>268857</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>240055</v>
+        <v>240234</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>298475</v>
+        <v>299932</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1899526221004781</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1696032706408087</v>
+        <v>0.1697295911001269</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2108785230201617</v>
+        <v>0.2119074478251346</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>169</v>
@@ -5016,19 +5016,19 @@
         <v>173494</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>150299</v>
+        <v>150389</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>197393</v>
+        <v>198586</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1681172592030936</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1456406755623657</v>
+        <v>0.1457279960158832</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1912753813857027</v>
+        <v>0.1924314258017055</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>421</v>
@@ -5037,19 +5037,19 @@
         <v>442351</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>407738</v>
+        <v>403189</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>485868</v>
+        <v>480187</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1807453191079589</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1666023984643228</v>
+        <v>0.1647435808919778</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1985263358556165</v>
+        <v>0.1962051003100773</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>463126</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>430632</v>
+        <v>429590</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>507269</v>
+        <v>499789</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3272075858218804</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3042499771319152</v>
+        <v>0.3035137931292664</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3583953237315398</v>
+        <v>0.3531102513137021</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>308</v>
@@ -5087,19 +5087,19 @@
         <v>310578</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>284242</v>
+        <v>284071</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>342697</v>
+        <v>340466</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3009524921016566</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2754331698440771</v>
+        <v>0.2752669285869113</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3320763160742937</v>
+        <v>0.32991507624352</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>743</v>
@@ -5108,19 +5108,19 @@
         <v>773704</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>724163</v>
+        <v>726571</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>818723</v>
+        <v>820976</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3161366178642998</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2958941497230949</v>
+        <v>0.2968779831708561</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3345314441737155</v>
+        <v>0.3354522241054339</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>568106</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>528510</v>
+        <v>527646</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>605933</v>
+        <v>603603</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4013774340748515</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3734021101688018</v>
+        <v>0.3727918068567194</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.428103042495115</v>
+        <v>0.4264567228018154</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>435</v>
@@ -5158,19 +5158,19 @@
         <v>451652</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>420115</v>
+        <v>420716</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>481834</v>
+        <v>482754</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4376552467877696</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4070948264094703</v>
+        <v>0.4076779474410165</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4669015029170532</v>
+        <v>0.4677931319248955</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>957</v>
@@ -5179,19 +5179,19 @@
         <v>1019758</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>969951</v>
+        <v>969443</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1070351</v>
+        <v>1065711</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4166746753033778</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3963236322408639</v>
+        <v>0.3961157615043706</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.437346982029269</v>
+        <v>0.4354513457041798</v>
       </c>
     </row>
     <row r="33">
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3589</v>
+        <v>4209</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01829349652015562</v>
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09263789246110359</v>
+        <v>0.1086444815589218</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3903</v>
+        <v>3653</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009159026058414154</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05043980073384777</v>
+        <v>0.04721210885788506</v>
       </c>
     </row>
     <row r="5">
@@ -5589,16 +5589,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7721</v>
+        <v>6791</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05861958485569584</v>
+        <v>0.05861958485569582</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1998353314316346</v>
+        <v>0.1757516121154973</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -5607,19 +5607,19 @@
         <v>3580</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>974</v>
+        <v>1366</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7874</v>
+        <v>8004</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.09240964074094887</v>
+        <v>0.09240964074094886</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02512778463781672</v>
+        <v>0.03525262084170531</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2032471161335029</v>
+        <v>0.2065873542613069</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -5628,19 +5628,19 @@
         <v>5845</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2453</v>
+        <v>2446</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11734</v>
+        <v>11773</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.07553729121255964</v>
+        <v>0.07553729121255966</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03169769688153243</v>
+        <v>0.03161014897823897</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1516429794977141</v>
+        <v>0.1521372725884464</v>
       </c>
     </row>
     <row r="6">
@@ -5657,19 +5657,19 @@
         <v>6943</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2606</v>
+        <v>2556</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13724</v>
+        <v>14269</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1796779027101379</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06743361714161741</v>
+        <v>0.06616141965751346</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3551879879677727</v>
+        <v>0.3692913637692027</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -5678,19 +5678,19 @@
         <v>9388</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5306</v>
+        <v>5248</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>15071</v>
+        <v>14889</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2423175906871403</v>
+        <v>0.2423175906871402</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1369497583734753</v>
+        <v>0.1354596469310856</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3890004612824403</v>
+        <v>0.3843115766119476</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -5699,19 +5699,19 @@
         <v>16331</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9551</v>
+        <v>9793</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24438</v>
+        <v>24584</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2110397877297774</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1234316344213585</v>
+        <v>0.1265560674783984</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3158082473781897</v>
+        <v>0.3176966699164718</v>
       </c>
     </row>
     <row r="7">
@@ -5728,19 +5728,19 @@
         <v>7916</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3236</v>
+        <v>2956</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15170</v>
+        <v>15245</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2048809011937338</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08374599893569706</v>
+        <v>0.07649451015759434</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3926133189836028</v>
+        <v>0.3945609476605583</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -5749,19 +5749,19 @@
         <v>7676</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3750</v>
+        <v>3783</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13156</v>
+        <v>13481</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1981186468901263</v>
+        <v>0.1981186468901262</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09678376183441248</v>
+        <v>0.09764630666594822</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3395707464717392</v>
+        <v>0.3479552419019731</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -5770,19 +5770,19 @@
         <v>15592</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9168</v>
+        <v>8875</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24323</v>
+        <v>25035</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2014952355112808</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1184727301974063</v>
+        <v>0.1146935781579097</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3143236880070441</v>
+        <v>0.323521751334814</v>
       </c>
     </row>
     <row r="8">
@@ -5799,19 +5799,19 @@
         <v>21515</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13687</v>
+        <v>14306</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28441</v>
+        <v>29337</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5568216112404326</v>
+        <v>0.5568216112404323</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3542328643201819</v>
+        <v>0.3702505005160454</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7360691507336774</v>
+        <v>0.759266519739453</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -5820,19 +5820,19 @@
         <v>17390</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11759</v>
+        <v>11140</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22924</v>
+        <v>23449</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.448860625161629</v>
+        <v>0.4488606251616289</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3035218400589816</v>
+        <v>0.2875446741750971</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5916824008305341</v>
+        <v>0.6052369445307655</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>33</v>
@@ -5841,19 +5841,19 @@
         <v>38905</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>29231</v>
+        <v>29017</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>48967</v>
+        <v>48206</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5027686594879679</v>
+        <v>0.5027686594879678</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.37774561722887</v>
+        <v>0.3749849077066446</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6327947485714959</v>
+        <v>0.6229672366498075</v>
       </c>
     </row>
     <row r="9">
@@ -5945,19 +5945,19 @@
         <v>4213</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12253</v>
+        <v>11757</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03605563871185809</v>
+        <v>0.03605563871185808</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006305076858455061</v>
+        <v>0.006180755167915841</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1048700075411065</v>
+        <v>0.100627186444482</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -5966,19 +5966,19 @@
         <v>2518</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>725</v>
+        <v>747</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6916</v>
+        <v>7226</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02563641419276417</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007385403410582398</v>
+        <v>0.00760826358288796</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07042693208589965</v>
+        <v>0.0735833224202801</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -5987,19 +5987,19 @@
         <v>6730</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2427</v>
+        <v>2444</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15915</v>
+        <v>16242</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03129760437585515</v>
+        <v>0.03129760437585514</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01128668800934928</v>
+        <v>0.0113651987261093</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07400699058509529</v>
+        <v>0.07552870140584546</v>
       </c>
     </row>
     <row r="11">
@@ -6016,19 +6016,19 @@
         <v>8089</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3152</v>
+        <v>3374</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16197</v>
+        <v>15320</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06923292641581102</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02697965898757354</v>
+        <v>0.02887851416899971</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1386237229387938</v>
+        <v>0.1311205783300956</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -6037,19 +6037,19 @@
         <v>5832</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2593</v>
+        <v>2465</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11462</v>
+        <v>11789</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.05938997279344214</v>
+        <v>0.05938997279344215</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02640346269886023</v>
+        <v>0.02509724530388172</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1167180329615655</v>
+        <v>0.1200454909451574</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -6058,19 +6058,19 @@
         <v>13921</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7498</v>
+        <v>8017</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21690</v>
+        <v>22734</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06473805146450434</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0348673079422623</v>
+        <v>0.03728103104224425</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1008614097727169</v>
+        <v>0.1057194409911898</v>
       </c>
     </row>
     <row r="12">
@@ -6087,19 +6087,19 @@
         <v>25418</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16234</v>
+        <v>16487</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37238</v>
+        <v>36489</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2175389575276567</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1389436332350443</v>
+        <v>0.1411036302036724</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3187010005566588</v>
+        <v>0.3122973901779039</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -6108,19 +6108,19 @@
         <v>13892</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8537</v>
+        <v>7986</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22151</v>
+        <v>20332</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1414654696890737</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08693539555780608</v>
+        <v>0.08132643429772733</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2255671453960353</v>
+        <v>0.2070416816152224</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>38</v>
@@ -6129,19 +6129,19 @@
         <v>39310</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>28052</v>
+        <v>28278</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>53288</v>
+        <v>52252</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1827993023323815</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.13044738962726</v>
+        <v>0.1315003124247935</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2478034477108086</v>
+        <v>0.2429831124719672</v>
       </c>
     </row>
     <row r="13">
@@ -6158,19 +6158,19 @@
         <v>35231</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24373</v>
+        <v>24001</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47828</v>
+        <v>48021</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.301526426270336</v>
+        <v>0.3015264262703359</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2085945131877775</v>
+        <v>0.2054132230336385</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4093424835174943</v>
+        <v>0.4109891634357987</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -6179,19 +6179,19 @@
         <v>28481</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21581</v>
+        <v>21548</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37565</v>
+        <v>37485</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2900305125932667</v>
+        <v>0.2900305125932666</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2197660743136867</v>
+        <v>0.2194295208005781</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3825288440414017</v>
+        <v>0.3817171920565509</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>64</v>
@@ -6200,19 +6200,19 @@
         <v>63712</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48846</v>
+        <v>48946</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>78748</v>
+        <v>78626</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2962767119658803</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2271438482781498</v>
+        <v>0.2276101855586602</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.366196487290916</v>
+        <v>0.3656289994914172</v>
       </c>
     </row>
     <row r="14">
@@ -6229,19 +6229,19 @@
         <v>43891</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33027</v>
+        <v>32768</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56295</v>
+        <v>56132</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3756460510743383</v>
+        <v>0.3756460510743382</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.282666849699558</v>
+        <v>0.2804505614316943</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4818005808120989</v>
+        <v>0.4804064183256015</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>53</v>
@@ -6250,19 +6250,19 @@
         <v>47478</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37752</v>
+        <v>38295</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>55856</v>
+        <v>57184</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4834776307314535</v>
+        <v>0.4834776307314534</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3844358848508622</v>
+        <v>0.3899658305440634</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5687939279313495</v>
+        <v>0.5823160561044156</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>89</v>
@@ -6271,19 +6271,19 @@
         <v>91369</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>75049</v>
+        <v>75462</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>108511</v>
+        <v>107225</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4248883298613787</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3489968081077752</v>
+        <v>0.3509136667811325</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5046023400277014</v>
+        <v>0.4986232959845592</v>
       </c>
     </row>
     <row r="15">
@@ -6375,19 +6375,19 @@
         <v>3880</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1129</v>
+        <v>1101</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11298</v>
+        <v>10634</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03307466226079599</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009619295478307801</v>
+        <v>0.009382168953313728</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.096298969494418</v>
+        <v>0.09063980717031574</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -6396,19 +6396,19 @@
         <v>4839</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2011</v>
+        <v>2109</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9174</v>
+        <v>9687</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04035684774457437</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01676793116420155</v>
+        <v>0.01758862495655842</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0765065542003993</v>
+        <v>0.08078147588238463</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -6417,19 +6417,19 @@
         <v>8720</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4216</v>
+        <v>4285</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15831</v>
+        <v>16372</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03675545026349288</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01777015003260929</v>
+        <v>0.01806052084633707</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06673165353059639</v>
+        <v>0.06901207126018015</v>
       </c>
     </row>
     <row r="17">
@@ -6446,19 +6446,19 @@
         <v>13453</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6950</v>
+        <v>6977</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23614</v>
+        <v>23787</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1146644929500238</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05923836436061435</v>
+        <v>0.05947058996328618</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2012698037167614</v>
+        <v>0.2027472228527787</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -6467,19 +6467,19 @@
         <v>3259</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1157</v>
+        <v>1112</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7105</v>
+        <v>7162</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0271790988521381</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.009644668123121512</v>
+        <v>0.009273353786197605</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05925151718630133</v>
+        <v>0.05972849517407502</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -6488,19 +6488,19 @@
         <v>16712</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9418</v>
+        <v>9610</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26904</v>
+        <v>26148</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0704449122041035</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03969727071921433</v>
+        <v>0.04050770926196672</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.11340656068096</v>
+        <v>0.1102201325778862</v>
       </c>
     </row>
     <row r="18">
@@ -6517,19 +6517,19 @@
         <v>18937</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11069</v>
+        <v>12158</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>28042</v>
+        <v>29373</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1614032507614276</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09434784161019472</v>
+        <v>0.1036286277271646</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2390089647897295</v>
+        <v>0.250359798345541</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>40</v>
@@ -6538,19 +6538,19 @@
         <v>27976</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20473</v>
+        <v>20053</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37094</v>
+        <v>35792</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2333063224496589</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1707327594382978</v>
+        <v>0.1672317720697442</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3093425177805142</v>
+        <v>0.2984903457880038</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>58</v>
@@ -6559,19 +6559,19 @@
         <v>46913</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>37083</v>
+        <v>36120</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>60038</v>
+        <v>60071</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.197746730918126</v>
+        <v>0.1977467309181259</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1563117351355399</v>
+        <v>0.1522546485258812</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2530740028259656</v>
+        <v>0.2532137332243324</v>
       </c>
     </row>
     <row r="19">
@@ -6588,19 +6588,19 @@
         <v>41873</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31077</v>
+        <v>30886</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53449</v>
+        <v>53709</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3569013177862488</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2648812462720098</v>
+        <v>0.2632505721530781</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4555626193890266</v>
+        <v>0.4577802313191945</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -6609,19 +6609,19 @@
         <v>35537</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26373</v>
+        <v>26964</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46633</v>
+        <v>45142</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2963623942517827</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2199396469147023</v>
+        <v>0.2248694618692763</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3888991582474357</v>
+        <v>0.3764656216497885</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -6630,19 +6630,19 @@
         <v>77411</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>63362</v>
+        <v>62648</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>94284</v>
+        <v>93091</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3263018577837234</v>
+        <v>0.3263018577837235</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2670843981579398</v>
+        <v>0.2640761180290522</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3974255678314508</v>
+        <v>0.3923996196017133</v>
       </c>
     </row>
     <row r="20">
@@ -6659,19 +6659,19 @@
         <v>39181</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28234</v>
+        <v>27772</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>52298</v>
+        <v>52485</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3339562762415037</v>
+        <v>0.3339562762415038</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2406491348067026</v>
+        <v>0.2367125074276524</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4457552674654153</v>
+        <v>0.4473508830307055</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>62</v>
@@ -6680,19 +6680,19 @@
         <v>48300</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>37687</v>
+        <v>39623</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>58267</v>
+        <v>58755</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.402795336701846</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3142940497740191</v>
+        <v>0.3304329235627681</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4859212938876379</v>
+        <v>0.489991364353891</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>93</v>
@@ -6701,19 +6701,19 @@
         <v>87481</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>72327</v>
+        <v>71953</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>102251</v>
+        <v>104017</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3687510488305543</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3048738142339941</v>
+        <v>0.3032970902478259</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4310096057793409</v>
+        <v>0.4384525917548535</v>
       </c>
     </row>
     <row r="21">
@@ -6805,19 +6805,19 @@
         <v>20065</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11226</v>
+        <v>11700</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30769</v>
+        <v>32266</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.0994587539230997</v>
+        <v>0.09945875392309969</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05564454980773176</v>
+        <v>0.05799380869237826</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1525163973424355</v>
+        <v>0.1599367451225513</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -6826,19 +6826,19 @@
         <v>9040</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4244</v>
+        <v>4927</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16189</v>
+        <v>18030</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06961204154093303</v>
+        <v>0.06961204154093302</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03268184063098505</v>
+        <v>0.03793804409526648</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1246554349096379</v>
+        <v>0.1388335812842301</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -6847,19 +6847,19 @@
         <v>29106</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18168</v>
+        <v>19578</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>41837</v>
+        <v>44689</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08777001095989223</v>
+        <v>0.08777001095989222</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05478527161661017</v>
+        <v>0.05903831562163428</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1261629110520936</v>
+        <v>0.1347627202004088</v>
       </c>
     </row>
     <row r="23">
@@ -6876,19 +6876,19 @@
         <v>4944</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1861</v>
+        <v>1660</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11315</v>
+        <v>11903</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02450840454942894</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.009222430939987567</v>
+        <v>0.008227770910973702</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05608492545356744</v>
+        <v>0.05900238853695661</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -6897,19 +6897,19 @@
         <v>4189</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1305</v>
+        <v>1392</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10121</v>
+        <v>10111</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03225955994934116</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01004806852477724</v>
+        <v>0.01072021447480879</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07793371403054498</v>
+        <v>0.07785323114570863</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -6918,19 +6918,19 @@
         <v>9134</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4818</v>
+        <v>4331</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>17228</v>
+        <v>17002</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02754395707452331</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01452989867951038</v>
+        <v>0.01305970950003057</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05195328620044057</v>
+        <v>0.05127081510558966</v>
       </c>
     </row>
     <row r="24">
@@ -6947,19 +6947,19 @@
         <v>39644</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28357</v>
+        <v>29100</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>53912</v>
+        <v>54476</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1965043177133828</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1405613299606441</v>
+        <v>0.1442443847547076</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2672321650027748</v>
+        <v>0.2700274968410393</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>25</v>
@@ -6968,19 +6968,19 @@
         <v>17633</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11928</v>
+        <v>11850</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24345</v>
+        <v>24383</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.135773515504755</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09185061807342275</v>
+        <v>0.09124798236844547</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1874612671363472</v>
+        <v>0.187749134136192</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>60</v>
@@ -6989,19 +6989,19 @@
         <v>57276</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>45049</v>
+        <v>43969</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>74190</v>
+        <v>71718</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.172720568003308</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1358474741773096</v>
+        <v>0.132592565444119</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.223724605846509</v>
+        <v>0.2162692932227069</v>
       </c>
     </row>
     <row r="25">
@@ -7018,19 +7018,19 @@
         <v>32257</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21821</v>
+        <v>22070</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43944</v>
+        <v>44029</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1598931961771033</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1081642555195582</v>
+        <v>0.1093936979869767</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2178191903568602</v>
+        <v>0.218242565595332</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>37</v>
@@ -7039,19 +7039,19 @@
         <v>28213</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20299</v>
+        <v>21148</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37225</v>
+        <v>37306</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2172404597706414</v>
+        <v>0.2172404597706413</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.156303077029246</v>
+        <v>0.1628442207533515</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2866395476018934</v>
+        <v>0.2872588425058503</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -7060,19 +7060,19 @@
         <v>60470</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46429</v>
+        <v>47373</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>75272</v>
+        <v>76910</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1823518648306293</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1400100685370012</v>
+        <v>0.1428574213602982</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2269889349210367</v>
+        <v>0.2319272353121693</v>
       </c>
     </row>
     <row r="26">
@@ -7089,19 +7089,19 @@
         <v>104833</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>88118</v>
+        <v>89162</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>120039</v>
+        <v>122223</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5196353276369854</v>
+        <v>0.5196353276369853</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4367823126428416</v>
+        <v>0.4419552622756651</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5950049050432495</v>
+        <v>0.6058319764459941</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>94</v>
@@ -7110,19 +7110,19 @@
         <v>70793</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>61239</v>
+        <v>60769</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>80528</v>
+        <v>80867</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5451144232343295</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4715451865831543</v>
+        <v>0.4679323966973878</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6200784694925502</v>
+        <v>0.6226868121288303</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>177</v>
@@ -7131,19 +7131,19 @@
         <v>175627</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>157089</v>
+        <v>156534</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>195110</v>
+        <v>197407</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5296135991316474</v>
+        <v>0.5296135991316473</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4737103653207578</v>
+        <v>0.4720368123550199</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5883658231731715</v>
+        <v>0.5952939069845816</v>
       </c>
     </row>
     <row r="27">
@@ -7235,19 +7235,19 @@
         <v>28159</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>17865</v>
+        <v>17772</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>42496</v>
+        <v>43663</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.05933732296834502</v>
+        <v>0.05933732296834501</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03764637196676712</v>
+        <v>0.03744946092012373</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08955033435424385</v>
+        <v>0.09200853597555246</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>22</v>
@@ -7256,19 +7256,19 @@
         <v>17106</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>11017</v>
+        <v>10927</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>27294</v>
+        <v>26572</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.0442328628833712</v>
+        <v>0.04423286288337121</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02848761401586859</v>
+        <v>0.02825610163863622</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07057649964742312</v>
+        <v>0.06871021396170834</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>43</v>
@@ -7277,19 +7277,19 @@
         <v>45264</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>33495</v>
+        <v>32028</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>63514</v>
+        <v>60598</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05255521529442295</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03889042201515232</v>
+        <v>0.03718732685504136</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07374410949285529</v>
+        <v>0.07035823074102376</v>
       </c>
     </row>
     <row r="29">
@@ -7306,19 +7306,19 @@
         <v>28752</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19121</v>
+        <v>18183</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>40076</v>
+        <v>40551</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.06058733833404716</v>
+        <v>0.06058733833404715</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04029216393913786</v>
+        <v>0.03831525739160275</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08445108370658415</v>
+        <v>0.08545108387734428</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>22</v>
@@ -7327,19 +7327,19 @@
         <v>16861</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11267</v>
+        <v>10672</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26753</v>
+        <v>25385</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04359953500083709</v>
+        <v>0.0435995350008371</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02913515800984138</v>
+        <v>0.02759625965471606</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06917971511852729</v>
+        <v>0.06564184140580631</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>47</v>
@@ -7348,19 +7348,19 @@
         <v>45613</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>33722</v>
+        <v>33865</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>62144</v>
+        <v>59465</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05295958396870848</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0391537283295317</v>
+        <v>0.03931988031813555</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07215311611879956</v>
+        <v>0.06904296460239157</v>
       </c>
     </row>
     <row r="30">
@@ -7377,19 +7377,19 @@
         <v>90940</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>71694</v>
+        <v>72304</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>111646</v>
+        <v>110129</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1916351465678449</v>
+        <v>0.1916351465678448</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1510770485313751</v>
+        <v>0.1523639608366585</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2352663314135811</v>
+        <v>0.2320709633365063</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>94</v>
@@ -7398,19 +7398,19 @@
         <v>68889</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>56556</v>
+        <v>56963</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>83711</v>
+        <v>82719</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1781347195927649</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1462434680980759</v>
+        <v>0.1472961986389096</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2164620810365113</v>
+        <v>0.2138980004842927</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>173</v>
@@ -7419,19 +7419,19 @@
         <v>159829</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>137357</v>
+        <v>137762</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>183085</v>
+        <v>185273</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1855732715406136</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1594815799055912</v>
+        <v>0.1599511365695032</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2125743709508431</v>
+        <v>0.2151155713759231</v>
       </c>
     </row>
     <row r="31">
@@ -7448,19 +7448,19 @@
         <v>117278</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>98459</v>
+        <v>96699</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>139730</v>
+        <v>140057</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2471355914492725</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2074782850782993</v>
+        <v>0.2037699664882594</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2944471480686579</v>
+        <v>0.2951362122519259</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>128</v>
@@ -7469,19 +7469,19 @@
         <v>99907</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>84752</v>
+        <v>85321</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>118027</v>
+        <v>116427</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2583417736336394</v>
+        <v>0.2583417736336395</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2191532415983044</v>
+        <v>0.2206239622376029</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3051971193443263</v>
+        <v>0.301058752312813</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>228</v>
@@ -7490,19 +7490,19 @@
         <v>217185</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>192594</v>
+        <v>191141</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>246098</v>
+        <v>245276</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2521673194130924</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2236152186446448</v>
+        <v>0.2219282420453496</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2857373583516785</v>
+        <v>0.2847830733156545</v>
       </c>
     </row>
     <row r="32">
@@ -7519,19 +7519,19 @@
         <v>209421</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>185703</v>
+        <v>186324</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>234910</v>
+        <v>236023</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4413046006804905</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3913246607792109</v>
+        <v>0.3926328682431383</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4950154529600421</v>
+        <v>0.4973610962058896</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>229</v>
@@ -7540,19 +7540,19 @@
         <v>183961</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>165101</v>
+        <v>166102</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>202803</v>
+        <v>201716</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4756911088893873</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4269233287679348</v>
+        <v>0.4295112946099779</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5244127463127333</v>
+        <v>0.521601358367025</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>392</v>
@@ -7561,19 +7561,19 @@
         <v>393382</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>362028</v>
+        <v>361802</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>422409</v>
+        <v>425003</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.4567446097831627</v>
+        <v>0.4567446097831626</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4203405365685736</v>
+        <v>0.4200772160273882</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4904470220650844</v>
+        <v>0.4934584680696043</v>
       </c>
     </row>
     <row r="33">
